--- a/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 4,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,6</t>
+          <t>0,79; 6,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,75</t>
+          <t>1,47; 7,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,99</t>
+          <t>0,86; 7,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,21</t>
+          <t>0,78; 7,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,02</t>
+          <t>0,72; 4,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,25</t>
+          <t>0,83; 4,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,43</t>
+          <t>1,17; 5,44</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,74</t>
+          <t>0,56; 2,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,52</t>
+          <t>0,53; 2,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,95</t>
+          <t>3,54; 7,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,36</t>
+          <t>2,19; 5,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,96</t>
+          <t>1,95; 5,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,73</t>
+          <t>1,9; 3,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,66</t>
+          <t>1,66; 3,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,33</t>
+          <t>1,46; 3,36</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,87</t>
+          <t>0,97; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,67</t>
+          <t>0,91; 2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,37</t>
+          <t>0,3; 1,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,43</t>
+          <t>6,93; 10,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,22</t>
+          <t>5,93; 9,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,99</t>
+          <t>2,72; 4,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,37</t>
+          <t>4,23; 6,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,43</t>
+          <t>3,66; 5,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,86</t>
+          <t>1,63; 2,87</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,5</t>
+          <t>0,98; 3,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,25</t>
+          <t>2,26; 5,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,4</t>
+          <t>0,17; 1,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,71</t>
+          <t>4,36; 7,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,26</t>
+          <t>5,52; 9,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,53</t>
+          <t>1,95; 4,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,1</t>
+          <t>2,95; 5,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,84</t>
+          <t>4,34; 6,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,72</t>
+          <t>1,24; 2,64</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,91</t>
+          <t>2,57; 4,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,03</t>
+          <t>2,42; 4,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,92</t>
+          <t>0,61; 1,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,58</t>
+          <t>8,5; 12,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,07</t>
+          <t>8,61; 12,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,21</t>
+          <t>2,84; 5,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 8,33</t>
+          <t>6,04; 8,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,18</t>
+          <t>6,09; 8,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,34</t>
+          <t>1,9; 3,37</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,51</t>
+          <t>1,58; 2,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,12</t>
+          <t>2,01; 3,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,27</t>
+          <t>0,64; 1,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,87</t>
+          <t>6,91; 8,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,33</t>
+          <t>6,49; 8,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,14</t>
+          <t>2,93; 4,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,43</t>
+          <t>4,44; 5,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,58</t>
+          <t>4,5; 5,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,63</t>
+          <t>1,93; 2,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,49 +690,49 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,72</t>
+          <t>0,0; 4,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,49</t>
+          <t>0,79; 6,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,56</t>
+          <t>1,48; 8,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,51</t>
+          <t>0,86; 7,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,22</t>
+          <t>0,8; 7,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,1</t>
+          <t>0,73; 3,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,27</t>
+          <t>0,7; 5,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,44</t>
+          <t>1,17; 5,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,72</t>
+          <t>0,58; 2,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,5</t>
+          <t>0,54; 2,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,35</t>
+          <t>3,43; 7,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,64</t>
+          <t>2,19; 5,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,01</t>
+          <t>2,03; 5,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,87</t>
+          <t>1,82; 3,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,48</t>
+          <t>1,71; 3,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,36</t>
+          <t>1,58; 3,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,71</t>
+          <t>0,99; 2,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,62</t>
+          <t>0,82; 2,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,3</t>
+          <t>0,3; 1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,54</t>
+          <t>6,99; 10,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,31</t>
+          <t>5,85; 9,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,89</t>
+          <t>2,69; 5,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,25</t>
+          <t>4,19; 6,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,48</t>
+          <t>3,59; 5,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,87</t>
+          <t>1,62; 2,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,47</t>
+          <t>1,03; 3,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,22</t>
+          <t>2,25; 5,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,43</t>
+          <t>0,15; 1,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,8</t>
+          <t>4,33; 8,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,19</t>
+          <t>5,33; 9,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,49</t>
+          <t>2,02; 4,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,13</t>
+          <t>2,91; 4,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,85</t>
+          <t>4,27; 6,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,64</t>
+          <t>1,27; 2,73</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,95</t>
+          <t>2,56; 5,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,83</t>
+          <t>2,49; 4,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,96</t>
+          <t>0,6; 1,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 12,4</t>
+          <t>8,66; 12,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 12,23</t>
+          <t>8,46; 12,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,22</t>
+          <t>2,81; 5,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 8,33</t>
+          <t>6,05; 8,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 8,26</t>
+          <t>5,95; 8,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,37</t>
+          <t>1,87; 3,27</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,63</t>
+          <t>1,52; 2,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,15</t>
+          <t>1,98; 3,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,31</t>
+          <t>0,65; 1,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 8,72</t>
+          <t>6,92; 8,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 8,27</t>
+          <t>6,62; 8,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 4,17</t>
+          <t>2,98; 4,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 5,52</t>
+          <t>4,45; 5,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,6</t>
+          <t>4,48; 5,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,68</t>
+          <t>1,97; 2,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,64</t>
+          <t>0,8; 6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,17</t>
+          <t>1,47; 7,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,63</t>
+          <t>0,84; 6,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,98</t>
+          <t>0,79; 8,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,74</t>
+          <t>0,72; 4,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,03</t>
+          <t>0,71; 4,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,76</t>
+          <t>1,2; 5,43</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,81</t>
+          <t>0,67; 2,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,47</t>
+          <t>0,53; 2,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,19</t>
+          <t>3,36; 6,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,61</t>
+          <t>2,15; 5,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,02</t>
+          <t>2,0; 4,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,73</t>
+          <t>1,84; 3,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,66</t>
+          <t>1,74; 3,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,35</t>
+          <t>1,59; 3,33</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,75</t>
+          <t>1,02; 2,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,45</t>
+          <t>0,92; 2,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,38</t>
+          <t>0,29; 1,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 10,48</t>
+          <t>6,95; 10,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,14</t>
+          <t>5,81; 9,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,04</t>
+          <t>2,67; 4,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,23</t>
+          <t>4,3; 6,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 5,55</t>
+          <t>3,55; 5,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,93</t>
+          <t>1,66; 2,86</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,28</t>
+          <t>0,97; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,35</t>
+          <t>2,3; 5,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,46</t>
+          <t>0,15; 1,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,0</t>
+          <t>4,35; 7,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,26</t>
+          <t>5,55; 9,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,44</t>
+          <t>2,1; 4,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,97</t>
+          <t>2,94; 5,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,7</t>
+          <t>4,26; 6,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,73</t>
+          <t>1,25; 2,72</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,02</t>
+          <t>2,49; 4,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,8</t>
+          <t>2,47; 5,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,96</t>
+          <t>0,6; 1,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,34</t>
+          <t>8,68; 12,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 12,34</t>
+          <t>8,58; 12,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,26</t>
+          <t>2,76; 5,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,05; 8,29</t>
+          <t>5,95; 8,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 8,41</t>
+          <t>5,98; 8,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,27</t>
+          <t>1,93; 3,34</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,53</t>
+          <t>1,52; 2,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,1</t>
+          <t>2,04; 3,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,32</t>
+          <t>0,66; 1,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,78</t>
+          <t>6,94; 8,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,62; 8,31</t>
+          <t>6,55; 8,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,22</t>
+          <t>2,98; 4,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 5,6</t>
+          <t>4,39; 5,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,48; 5,58</t>
+          <t>4,52; 5,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,64</t>
+          <t>1,93; 2,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,77; 2,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,6</t>
+          <t>0,71; 2,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,75</t>
+          <t>3,39; 6,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,99</t>
+          <t>2,19; 4,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,21</t>
+          <t>2,15; 4,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,02</t>
+          <t>1,82; 3,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,25</t>
+          <t>1,68; 3,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,43</t>
+          <t>1,65; 3,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>1,02; 2,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,74</t>
+          <t>0,92; 2,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,52</t>
+          <t>0,29; 1,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,95</t>
+          <t>6,95; 10,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,36</t>
+          <t>5,81; 9,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,96</t>
+          <t>2,67; 4,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,73</t>
+          <t>4,3; 6,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,66</t>
+          <t>3,55; 5,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,33</t>
+          <t>1,66; 2,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,87</t>
+          <t>0,97; 3,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,67</t>
+          <t>2,3; 5,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,37</t>
+          <t>0,15; 1,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,43</t>
+          <t>4,35; 7,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,22</t>
+          <t>5,55; 9,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,99</t>
+          <t>2,1; 4,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,37</t>
+          <t>2,94; 5,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,43</t>
+          <t>4,26; 6,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,86</t>
+          <t>1,25; 2,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,5</t>
+          <t>2,49; 4,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,25</t>
+          <t>2,47; 5,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,4</t>
+          <t>0,6; 1,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,71</t>
+          <t>8,68; 12,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,26</t>
+          <t>8,58; 12,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,53</t>
+          <t>2,76; 5,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,1</t>
+          <t>5,95; 8,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,84</t>
+          <t>5,98; 8,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,72</t>
+          <t>1,93; 3,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,91</t>
+          <t>1,52; 2,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,03</t>
+          <t>2,04; 3,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,92</t>
+          <t>0,66; 1,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,58</t>
+          <t>6,94; 8,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,07</t>
+          <t>6,55; 8,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,21</t>
+          <t>2,98; 4,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 8,33</t>
+          <t>4,39; 5,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,18</t>
+          <t>4,52; 5,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,34</t>
+          <t>1,93; 2,63</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,42%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 2,51</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 3,12</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 1,27</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 8,87</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 8,33</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 4,14</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 5,43</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,52; 5,58</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 2,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,73</t>
+          <t>0,69; 2,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,61</t>
+          <t>0,73; 2,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,46</t>
+          <t>3,48; 6,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,91</t>
+          <t>2,12; 5,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,86</t>
+          <t>2,12; 4,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,47</t>
+          <t>1,9; 3,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,38</t>
+          <t>1,71; 3,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,31</t>
+          <t>1,64; 3,26</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,87</t>
+          <t>0,97; 2,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,67</t>
+          <t>0,93; 2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,37</t>
+          <t>0,29; 1,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,43</t>
+          <t>6,91; 10,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,22</t>
+          <t>5,91; 8,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,99</t>
+          <t>2,69; 4,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,37</t>
+          <t>4,19; 6,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,43</t>
+          <t>3,53; 5,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,86</t>
+          <t>1,66; 2,88</t>
         </is>
       </c>
     </row>
@@ -905,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,5</t>
+          <t>0,94; 3,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,25</t>
+          <t>2,28; 5,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,32 +921,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,71</t>
+          <t>4,23; 7,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,26</t>
+          <t>5,34; 9,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,53</t>
+          <t>2,1; 4,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,1</t>
+          <t>2,96; 5,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,84</t>
+          <t>4,15; 6,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,72</t>
+          <t>1,28; 2,6</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,91</t>
+          <t>2,56; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,03</t>
+          <t>2,52; 5,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,92</t>
+          <t>0,61; 1,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,58</t>
+          <t>8,44; 12,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,07</t>
+          <t>8,65; 12,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,21</t>
+          <t>2,75; 5,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 8,33</t>
+          <t>5,97; 8,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,18</t>
+          <t>5,96; 8,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,34</t>
+          <t>1,89; 3,32</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,51</t>
+          <t>1,51; 2,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,12</t>
+          <t>1,99; 3,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,27</t>
+          <t>0,64; 1,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,87</t>
+          <t>6,92; 8,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,33</t>
+          <t>6,52; 8,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,14</t>
+          <t>2,94; 4,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,43</t>
+          <t>4,39; 5,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 5,58</t>
+          <t>4,53; 5,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,63</t>
+          <t>1,93; 2,65</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2646</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9824</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33124</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>23768</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21903</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35770</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33794</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31728</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8712</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4828; 18171</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4917; 16604</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>23923; 46853</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14749; 35356</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14155; 31785</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26294; 48766</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23861; 49320</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22029; 43876</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16245</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15823</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>83688</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>75811</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38400</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>99932</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>91633</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45416</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9371; 27467</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9381; 25918</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2988; 14067</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66924; 101108</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>60753; 92272</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28065; 51044</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>80963; 123063</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72064; 112516</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34149; 59297</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13038</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26448</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40091</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>55475</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24229</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>53129</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81923</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28805</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6373; 23669</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17211; 39190</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1123; 10588</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28902; 53153</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>41258; 70765</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16434; 35566</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>40385; 69087</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63445; 102550</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19640; 40022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>33766</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33004</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10480</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>107030</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>108044</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40224</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>140795</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>141049</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>50704</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24075; 47433</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23814; 47673</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5672; 18177</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>87708; 128580</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>90781; 128624</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28581; 54361</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>118269; 163727</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>118848; 164531</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>37305; 65584</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>65695</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>85301</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31896</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>263932</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>263098</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>124757</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>329626</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>348399</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>156653</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>49328; 82988</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>67959; 106551</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21737; 46443</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>233817; 295437</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>231049; 297812</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>103962; 145822</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>292503; 368021</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>315059; 389265</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>133144; 182921</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>